--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test1</t>
   </si>
   <si>
     <t>ONE</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -342,9 +345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -356,6 +361,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test1</t>
   </si>
   <si>
     <t>ONE</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -342,9 +345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -356,6 +361,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Test1</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,6 +369,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Test1</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,6 +369,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Test1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +388,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Test1</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Test1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,6 +372,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test1</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +375,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -378,6 +384,14 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test1</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,6 +386,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>BP1</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +411,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>BP2</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +411,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>BP2</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,11 +408,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>BP1</t>
+  </si>
+  <si>
+    <t>BP2</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +419,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>BP2</t>
+  </si>
+  <si>
+    <t>BP1100</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +427,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>BP2</t>
+  </si>
+  <si>
+    <t>BP1300</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +427,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test1</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>BP2</t>
-  </si>
-  <si>
-    <t>BP1300</t>
   </si>
 </sst>
 </file>
@@ -369,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +424,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg_MC.xlsx
+++ b/Reg_MC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>BP1100</t>
+  </si>
+  <si>
+    <t>BP1300</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +435,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
